--- a/data/georgia_census/samegrelo/zugdidi/education_graduates.xlsx
+++ b/data/georgia_census/samegrelo/zugdidi/education_graduates.xlsx
@@ -1835,13 +1835,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC413603-CA5D-4C70-A565-B62F5B7A60C0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E8D5F03-1705-493D-8334-95A0781A69A5}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C08690F-7777-4B71-A44D-3B6FE7EAC380}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C339F17F-06AC-42C4-ABB8-8078A5D6D214}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CECD1D5-CA19-4D99-BEE7-41AFFF1AD0C3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{227F86C3-6B8C-44EC-AB7A-A6B917331DB7}"/>
 </file>